--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -540,10 +540,10 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9623583333333334</v>
+        <v>0.4214143333333333</v>
       </c>
       <c r="N2">
-        <v>2.887075</v>
+        <v>1.264243</v>
       </c>
       <c r="O2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="P2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="Q2">
-        <v>8.812276122427781</v>
+        <v>3.858873912817112</v>
       </c>
       <c r="R2">
-        <v>79.31048510185002</v>
+        <v>34.729865215354</v>
       </c>
       <c r="S2">
-        <v>0.05628668935009724</v>
+        <v>0.02359575369732226</v>
       </c>
       <c r="T2">
-        <v>0.05628668935009723</v>
+        <v>0.02359575369732226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>12.12890133333333</v>
       </c>
       <c r="N3">
-        <v>36.38670399999999</v>
+        <v>36.386704</v>
       </c>
       <c r="O3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049885</v>
       </c>
       <c r="P3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049887</v>
       </c>
       <c r="Q3">
         <v>111.0638562673458</v>
       </c>
       <c r="R3">
-        <v>999.574706406112</v>
+        <v>999.5747064061121</v>
       </c>
       <c r="S3">
-        <v>0.7093986489862368</v>
+        <v>0.6791192084443978</v>
       </c>
       <c r="T3">
-        <v>0.7093986489862368</v>
+        <v>0.6791192084443979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.484187</v>
+        <v>4.762423333333333</v>
       </c>
       <c r="N4">
-        <v>10.452561</v>
+        <v>14.28727</v>
       </c>
       <c r="O4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="P4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="Q4">
-        <v>31.90455866872867</v>
+        <v>43.60931679145112</v>
       </c>
       <c r="R4">
-        <v>287.141028018558</v>
+        <v>392.48385112306</v>
       </c>
       <c r="S4">
-        <v>0.2037841254279649</v>
+        <v>0.2666567297008102</v>
       </c>
       <c r="T4">
-        <v>0.2037841254279648</v>
+        <v>0.2666567297008102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9623583333333334</v>
+        <v>0.4214143333333333</v>
       </c>
       <c r="N5">
-        <v>2.887075</v>
+        <v>1.264243</v>
       </c>
       <c r="O5">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="P5">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="Q5">
-        <v>0.2775162349416667</v>
+        <v>0.1219251401058889</v>
       </c>
       <c r="R5">
-        <v>2.497646114475</v>
+        <v>1.097326260953</v>
       </c>
       <c r="S5">
-        <v>0.001772580646447873</v>
+        <v>0.0007455324119024701</v>
       </c>
       <c r="T5">
-        <v>0.001772580646447873</v>
+        <v>0.00074553241190247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>12.12890133333333</v>
       </c>
       <c r="N6">
-        <v>36.38670399999999</v>
+        <v>36.386704</v>
       </c>
       <c r="O6">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049885</v>
       </c>
       <c r="P6">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049887</v>
       </c>
       <c r="Q6">
-        <v>3.497623406394666</v>
+        <v>3.509178206398222</v>
       </c>
       <c r="R6">
-        <v>31.478610657552</v>
+        <v>31.582603857584</v>
       </c>
       <c r="S6">
-        <v>0.02234038509509708</v>
+        <v>0.02145747866059077</v>
       </c>
       <c r="T6">
-        <v>0.02234038509509708</v>
+        <v>0.02145747866059077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.484187</v>
+        <v>4.762423333333333</v>
       </c>
       <c r="N7">
-        <v>10.452561</v>
+        <v>14.28727</v>
       </c>
       <c r="O7">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="P7">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="Q7">
-        <v>1.004738489377</v>
+        <v>1.377881781018889</v>
       </c>
       <c r="R7">
-        <v>9.042646404393</v>
+        <v>12.40093602917</v>
       </c>
       <c r="S7">
-        <v>0.006417570494156136</v>
+        <v>0.008425297084976387</v>
       </c>
       <c r="T7">
-        <v>0.006417570494156135</v>
+        <v>0.008425297084976387</v>
       </c>
     </row>
   </sheetData>
